--- a/Prepare/DataStorage.xlsx
+++ b/Prepare/DataStorage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyuhuang/Personal/Studios/Xilosopher/Projects/Centauri/git_1/Centauri/Prepare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyuhuang/Personal/Studios/SCITLAS/Projects/Stellar/git_1/Stellar/Prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tushare" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="162">
   <si>
     <t>Basic info data all securities</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -446,6 +446,234 @@
   </si>
   <si>
     <t>Total Number Of MySQL Tables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL Table Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_trade_history_security_xxxxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_trade_history_index_xxxxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_trade_tick_xxxxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_fundamental_report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_fundamental_profit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_fundamental_operation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_fundamental_cash_flow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_industry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_concept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_area</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_sme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_gem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_st</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_hs300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_zz500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_terminated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_suspended</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_loan_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_rrr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_money_supply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_money_supply_bal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_gdp_quarter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_gdp_for</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_cpi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_forecast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_restricted_share</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_fund_holding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_new_security</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_trade_margin_sh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_trade_margin_detail_sz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_shibor_lpr_ma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_rank_top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_social_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_social_sina_guba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_trade_big_deal_xxxxxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_classify_sz50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_deposit_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_gdp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_gdp_pull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_gdp_contribution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_macro_ppi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_divide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_trade_margin_detail_sh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_reference_trade_margin_sz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_shibor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_shibor_quote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_shibor_ma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_shibor_lpr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_rank_static</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_rank_broker_static</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_rank_institution_static</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_rank_institution_trade_detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_social_news</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_fundamental_growth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_fundamental_debt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_fundamental_basic_info</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +976,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -771,6 +999,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -786,9 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -798,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1166,11 +1397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH96"/>
+  <dimension ref="A1:DI96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,11 +1410,12 @@
     <col min="2" max="2" width="38.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="66.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="34.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.83203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:113" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,7 +1426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1206,7 +1438,7 @@
         <v>10519</v>
       </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -1214,7 +1446,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="5" spans="1:112" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:113" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,18 +1460,21 @@
         <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1346,8 +1581,9 @@
       <c r="DF6" s="2"/>
       <c r="DG6" s="2"/>
       <c r="DH6" s="2"/>
-    </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DI6" s="2"/>
+    </row>
+    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1361,9 +1597,12 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E7" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1377,9 +1616,12 @@
       <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1393,9 +1635,12 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -1409,9 +1654,12 @@
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -1425,9 +1673,12 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -1441,9 +1692,12 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -1457,17 +1711,20 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="E13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1574,17 +1831,19 @@
       <c r="DF14" s="2"/>
       <c r="DG14" s="2"/>
       <c r="DH14" s="2"/>
-    </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="DI14" s="2"/>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
@@ -1592,16 +1851,19 @@
         <f>1*6*4*2*5*52*30</f>
         <v>374400</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <f>1*B2</f>
         <v>3300</v>
       </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,11 +1871,12 @@
         <f>1*2*4*2*5*52*30</f>
         <v>124800</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1621,11 +1884,12 @@
         <f>1*4*2*5*52*30</f>
         <v>62400</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -1633,11 +1897,12 @@
         <f>1*4*5*52*30</f>
         <v>31200</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1645,11 +1910,12 @@
         <f>1*5*52*30</f>
         <v>7800</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1657,11 +1923,12 @@
         <f>1*52*30</f>
         <v>1560</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1669,11 +1936,12 @@
         <f>1*12*30</f>
         <v>360</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -1681,11 +1949,12 @@
         <f>1*30</f>
         <v>30</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1693,20 +1962,22 @@
         <f>SUM(B16:B23)</f>
         <v>602550</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -1714,16 +1985,19 @@
         <f>1*6*4*2*5*52*30*B3</f>
         <v>212284800</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="13">
         <f>1*B3</f>
         <v>567</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -1731,11 +2005,12 @@
         <f>1*2*4*2*5*52*30*B3</f>
         <v>70761600</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>34</v>
       </c>
@@ -1743,11 +2018,12 @@
         <f>1*4*2*5*52*30*B3</f>
         <v>35380800</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -1755,11 +2031,12 @@
         <f>1*4*5*52*30*B3</f>
         <v>17690400</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -1767,11 +2044,12 @@
         <f>1*5*52*30*B3</f>
         <v>4422600</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1779,11 +2057,12 @@
         <f>1*52*30*B3</f>
         <v>884520</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -1791,11 +2070,12 @@
         <f>1*12*30*B3</f>
         <v>204120</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1803,11 +2083,12 @@
         <f>1*30*B3</f>
         <v>17010</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -1815,20 +2096,22 @@
         <f>SUM(B26:B33)</f>
         <v>341645850</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
@@ -1836,16 +2119,19 @@
         <f>1*4*60*60</f>
         <v>14400</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="13">
         <f>1*B2</f>
         <v>3300</v>
       </c>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E36" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="18"/>
+    </row>
+    <row r="37" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -1853,11 +2139,12 @@
         <f>1*4*60*60*5</f>
         <v>72000</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1865,11 +2152,12 @@
         <f>1*4*60*60*5*52</f>
         <v>3744000</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -1877,20 +2165,22 @@
         <f>1*4*60*60*5*52*30</f>
         <v>112320000</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
@@ -1898,16 +2188,19 @@
         <f>1*5*52*B2*1</f>
         <v>858000</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="13">
         <f>1*B2</f>
         <v>3300</v>
       </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -1915,11 +2208,12 @@
         <f>1*5*52*B2*30</f>
         <v>25740000</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
@@ -1927,11 +2221,12 @@
         <f>1*5*52*B2*10</f>
         <v>8580000</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>23</v>
       </c>
@@ -1939,11 +2234,12 @@
         <f>1*5*52*B2*30*10</f>
         <v>257400000</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
@@ -1951,19 +2247,20 @@
         <f>1*5*52*B2*30*50</f>
         <v>1287000000</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="2"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2070,8 +2367,9 @@
       <c r="DF46" s="2"/>
       <c r="DG46" s="2"/>
       <c r="DH46" s="2"/>
-    </row>
-    <row r="47" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DI46" s="2"/>
+    </row>
+    <row r="47" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>53</v>
       </c>
@@ -2084,9 +2382,12 @@
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>54</v>
       </c>
@@ -2099,9 +2400,12 @@
       <c r="D48" s="4">
         <v>1</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E48" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -2114,9 +2418,12 @@
       <c r="D49" s="4">
         <v>1</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E49" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -2130,9 +2437,12 @@
       <c r="D50" s="4">
         <v>1</v>
       </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -2146,9 +2456,12 @@
       <c r="D51" s="4">
         <v>1</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -2162,9 +2475,12 @@
       <c r="D52" s="4">
         <v>1</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>59</v>
       </c>
@@ -2177,9 +2493,12 @@
       <c r="D53" s="4">
         <v>1</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
@@ -2192,9 +2511,12 @@
       <c r="D54" s="4">
         <v>1</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>61</v>
       </c>
@@ -2207,9 +2529,12 @@
       <c r="D55" s="4">
         <v>1</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
@@ -2223,9 +2548,12 @@
       <c r="D56" s="4">
         <v>1</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
@@ -2239,17 +2567,20 @@
       <c r="D57" s="4">
         <v>1</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="E57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="2"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -2356,8 +2687,9 @@
       <c r="DF58" s="2"/>
       <c r="DG58" s="2"/>
       <c r="DH58" s="2"/>
-    </row>
-    <row r="59" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DI58" s="2"/>
+    </row>
+    <row r="59" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>65</v>
       </c>
@@ -2370,9 +2702,12 @@
       <c r="D59" s="4">
         <v>1</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
@@ -2385,9 +2720,12 @@
       <c r="D60" s="4">
         <v>1</v>
       </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
@@ -2400,9 +2738,12 @@
       <c r="D61" s="4">
         <v>1</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E61" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
@@ -2415,9 +2756,12 @@
       <c r="D62" s="4">
         <v>1</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E62" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>69</v>
       </c>
@@ -2430,9 +2774,12 @@
       <c r="D63" s="4">
         <v>1</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
@@ -2445,9 +2792,12 @@
       <c r="D64" s="4">
         <v>1</v>
       </c>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E64" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>71</v>
       </c>
@@ -2460,9 +2810,12 @@
       <c r="D65" s="4">
         <v>1</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>72</v>
       </c>
@@ -2475,9 +2828,12 @@
       <c r="D66" s="4">
         <v>1</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
@@ -2490,9 +2846,12 @@
       <c r="D67" s="4">
         <v>1</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>75</v>
       </c>
@@ -2505,9 +2864,12 @@
       <c r="D68" s="4">
         <v>1</v>
       </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E68" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>76</v>
       </c>
@@ -2520,9 +2882,12 @@
       <c r="D69" s="4">
         <v>1</v>
       </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E69" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>77</v>
       </c>
@@ -2535,17 +2900,20 @@
       <c r="D70" s="4">
         <v>1</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8" t="s">
+      <c r="E70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="2"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2652,8 +3020,9 @@
       <c r="DF71" s="2"/>
       <c r="DG71" s="2"/>
       <c r="DH71" s="2"/>
-    </row>
-    <row r="72" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DI71" s="2"/>
+    </row>
+    <row r="72" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>79</v>
       </c>
@@ -2667,9 +3036,12 @@
       <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E72" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>80</v>
       </c>
@@ -2683,9 +3055,12 @@
       <c r="D73" s="4">
         <v>1</v>
       </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>81</v>
       </c>
@@ -2699,9 +3074,12 @@
       <c r="D74" s="4">
         <v>1</v>
       </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>82</v>
       </c>
@@ -2715,9 +3093,12 @@
       <c r="D75" s="4">
         <v>1</v>
       </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>83</v>
       </c>
@@ -2731,9 +3112,12 @@
       <c r="D76" s="4">
         <v>1</v>
       </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E76" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>84</v>
       </c>
@@ -2747,9 +3131,12 @@
       <c r="D77" s="4">
         <v>1</v>
       </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E77" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>85</v>
       </c>
@@ -2763,9 +3150,12 @@
       <c r="D78" s="4">
         <v>1</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E78" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>86</v>
       </c>
@@ -2779,9 +3169,12 @@
       <c r="D79" s="4">
         <v>1</v>
       </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>87</v>
       </c>
@@ -2795,17 +3188,20 @@
       <c r="D80" s="4">
         <v>1</v>
       </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="E80" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="2"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -2912,8 +3308,9 @@
       <c r="DF81" s="2"/>
       <c r="DG81" s="2"/>
       <c r="DH81" s="2"/>
-    </row>
-    <row r="82" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DI81" s="2"/>
+    </row>
+    <row r="82" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>89</v>
       </c>
@@ -2927,9 +3324,12 @@
       <c r="D82" s="4">
         <v>1</v>
       </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E82" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>90</v>
       </c>
@@ -2943,9 +3343,12 @@
       <c r="D83" s="4">
         <v>1</v>
       </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E83" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>91</v>
       </c>
@@ -2959,9 +3362,12 @@
       <c r="D84" s="4">
         <v>1</v>
       </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
@@ -2975,9 +3381,12 @@
       <c r="D85" s="4">
         <v>1</v>
       </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E85" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>93</v>
       </c>
@@ -2991,17 +3400,20 @@
       <c r="D86" s="4">
         <v>1</v>
       </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
+      <c r="E86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="2"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -3108,8 +3520,9 @@
       <c r="DF87" s="2"/>
       <c r="DG87" s="2"/>
       <c r="DH87" s="2"/>
-    </row>
-    <row r="88" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DI87" s="2"/>
+    </row>
+    <row r="88" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
@@ -3123,9 +3536,12 @@
       <c r="D88" s="4">
         <v>1</v>
       </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:112" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:113" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>95</v>
       </c>
@@ -3139,8 +3555,10 @@
       <c r="D89" s="4">
         <v>1</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="2"/>
+      <c r="E89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -3219,8 +3637,9 @@
       <c r="CD89" s="2"/>
       <c r="CE89" s="2"/>
       <c r="CF89" s="2"/>
-    </row>
-    <row r="90" spans="1:112" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CG89" s="2"/>
+    </row>
+    <row r="90" spans="1:113" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -3234,8 +3653,10 @@
       <c r="D90" s="4">
         <v>1</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="2"/>
+      <c r="E90" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -3314,8 +3735,9 @@
       <c r="CD90" s="2"/>
       <c r="CE90" s="2"/>
       <c r="CF90" s="2"/>
-    </row>
-    <row r="91" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="CG90" s="2"/>
+    </row>
+    <row r="91" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>98</v>
       </c>
@@ -3329,9 +3751,12 @@
       <c r="D91" s="4">
         <v>1</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E91" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>99</v>
       </c>
@@ -3345,17 +3770,20 @@
       <c r="D92" s="4">
         <v>1</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:112" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
+      <c r="E92" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:113" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="2"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="12"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -3462,8 +3890,9 @@
       <c r="DF93" s="2"/>
       <c r="DG93" s="2"/>
       <c r="DH93" s="2"/>
-    </row>
-    <row r="94" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="DI93" s="2"/>
+    </row>
+    <row r="94" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>101</v>
       </c>
@@ -3476,9 +3905,12 @@
       <c r="D94" s="4">
         <v>1</v>
       </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E94" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>102</v>
       </c>
@@ -3492,9 +3924,12 @@
       <c r="D95" s="4">
         <v>1</v>
       </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:112" x14ac:dyDescent="0.2">
+      <c r="E95" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>103</v>
       </c>
@@ -3507,34 +3942,41 @@
       <c r="D96" s="4">
         <v>1</v>
       </c>
-      <c r="E96" s="3"/>
+      <c r="E96" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F96" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="D16:D24"/>
+  <mergeCells count="28">
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="F26:F34"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E41:E45"/>
     <mergeCell ref="D26:D34"/>
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="D41:D45"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="E16:E24"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="E26:E34"/>
     <mergeCell ref="E36:E39"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="E41:E45"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="C16:C24"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="F16:F24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prepare/DataStorage.xlsx
+++ b/Prepare/DataStorage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyuhuang/Personal/Studios/SCITLAS/Projects/Stellar/git_1/Stellar/Prepare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyuhuang/Personal/Studios/SCITLAS/Projects/Stellar/git_1/Stellar/prepare/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1029,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1408,7 +1408,7 @@
   <cols>
     <col min="1" max="1" width="46" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="66.83203125" style="2" customWidth="1"/>
@@ -1851,17 +1851,17 @@
         <f>1*6*4*2*5*52*30</f>
         <v>374400</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="18">
         <f>1*B2</f>
         <v>3300</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
@@ -1985,17 +1985,17 @@
         <f>1*6*4*2*5*52*30*B3</f>
         <v>212284800</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="18">
         <f>1*B3</f>
         <v>567</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
@@ -2119,17 +2119,17 @@
         <f>1*4*60*60</f>
         <v>14400</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="18">
         <f>1*B2</f>
         <v>3300</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -2188,17 +2188,17 @@
         <f>1*5*52*B2*1</f>
         <v>858000</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="18">
         <f>1*B2</f>
         <v>3300</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -3949,11 +3949,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="F16:F24"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="F36:F39"/>
     <mergeCell ref="A25:F25"/>
@@ -3967,16 +3972,11 @@
     <mergeCell ref="D26:D34"/>
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="D41:D45"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="E26:E34"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
